--- a/data/case1/2/Q2_1.xlsx
+++ b/data/case1/2/Q2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.095650205366865748</v>
+        <v>0.11186715098494915</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999668463033</v>
+        <v>-0.0059999999512179159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999745976567</v>
+        <v>-0.0039999999599551472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999523252541</v>
+        <v>-0.0079999999256745724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999792229559</v>
+        <v>-0.0029999999631797891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999844344529</v>
+        <v>-0.0019999999664666035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999412143659</v>
+        <v>-0.0099999999029911635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.003959035891150986</v>
+        <v>-0.0099999999026398889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999867592599</v>
+        <v>-0.0019999999674555902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999881772368</v>
+        <v>-0.0019999999689641612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999829035673</v>
+        <v>-0.0029999999611192152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999804812276</v>
+        <v>-0.0034999999574387708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.033930426562958083</v>
+        <v>-0.0034999999611855515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0053248968608778924</v>
+        <v>-0.0079999999270254918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00063602803512274875</v>
+        <v>-0.0009999999849474861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999903919097</v>
+        <v>-0.0019999999800077717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999898070442</v>
+        <v>-0.0019999999862205797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999978750779</v>
+        <v>0.031570077527657503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999775059969</v>
+        <v>-0.0039999999671214148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999758766336</v>
+        <v>0.014663107535112019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999756350491</v>
+        <v>-0.0039999999675419673</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999754076754</v>
+        <v>-0.0039999999673012709</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999674099627</v>
+        <v>-0.004999999949172107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999882479358</v>
+        <v>-0.019999999825015102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999880847774</v>
+        <v>-0.019999999822530867</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999815236151</v>
+        <v>-0.0024999999624402136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999813317686</v>
+        <v>-0.0024999999618571245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999836164406</v>
+        <v>-0.0019999999626971743</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.07840933665927885</v>
+        <v>-0.0069999999208292252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999664199777</v>
+        <v>-0.059999999498919987</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999504588573</v>
+        <v>-0.0069999999272027935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999338056256</v>
+        <v>0.03263561508637558</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999663411501</v>
+        <v>0.02218949294190864</v>
       </c>
     </row>
   </sheetData>
